--- a/hardware/bom/bom_jlcsmt.xlsx
+++ b/hardware/bom/bom_jlcsmt.xlsx
@@ -64,7 +64,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C10, C12</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C10, C12, C14, C15</t>
   </si>
   <si>
     <t>C_0603</t>
@@ -76,7 +76,7 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>C9, C11</t>
+    <t xml:space="preserve">C9, C11, C13        </t>
   </si>
   <si>
     <t>C19702</t>
@@ -321,11 +321,11 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -571,7 +571,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -580,34 +580,34 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -616,34 +616,34 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -652,28 +652,28 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -688,28 +688,28 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -724,28 +724,28 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -760,28 +760,28 @@
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -796,28 +796,28 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="3" t="s">

--- a/hardware/bom/bom_jlcsmt.xlsx
+++ b/hardware/bom/bom_jlcsmt.xlsx
@@ -85,7 +85,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R3, R4, R5, R6, R7, R8, R9, R10, R14, R15, R16</t>
+    <t xml:space="preserve">R3, R4, R5, R6, R7, R8, R10, R14, R15, R16       </t>
   </si>
   <si>
     <t>R_0603</t>
@@ -106,7 +106,7 @@
     <t>1K</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R1, R9</t>
   </si>
   <si>
     <t>C23241</t>
@@ -715,7 +715,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
